--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.7879986578721112</v>
+        <v>0.06812782539733334</v>
       </c>
       <c r="R2">
-        <v>7.091987920849001</v>
+        <v>0.6131504285760001</v>
       </c>
       <c r="S2">
-        <v>0.004260560287097476</v>
+        <v>0.0005827375622014003</v>
       </c>
       <c r="T2">
-        <v>0.004260560287097478</v>
+        <v>0.0005827375622014002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H3">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I3">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J3">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
-        <v>0.6052588024402222</v>
+        <v>0.1131131238393333</v>
       </c>
       <c r="R3">
-        <v>5.447329221962001</v>
+        <v>1.018018114554</v>
       </c>
       <c r="S3">
-        <v>0.003272520316286511</v>
+        <v>0.0009675234113915847</v>
       </c>
       <c r="T3">
-        <v>0.003272520316286513</v>
+        <v>0.0009675234113915846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H4">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I4">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J4">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>146.8680592802007</v>
+        <v>41.73836554649768</v>
       </c>
       <c r="R4">
-        <v>1321.812533521806</v>
+        <v>375.645289918479</v>
       </c>
       <c r="S4">
-        <v>0.7940879271317947</v>
+        <v>0.3570129128147543</v>
       </c>
       <c r="T4">
-        <v>0.7940879271317949</v>
+        <v>0.3570129128147542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.297477</v>
       </c>
       <c r="I5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J5">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N5">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q5">
-        <v>0.003962162269</v>
+        <v>0.001832987168</v>
       </c>
       <c r="R5">
-        <v>0.035659460421</v>
+        <v>0.016496884512</v>
       </c>
       <c r="S5">
-        <v>2.142266493184452E-05</v>
+        <v>1.567862275945444E-05</v>
       </c>
       <c r="T5">
-        <v>2.142266493184453E-05</v>
+        <v>1.567862275945444E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.297477</v>
       </c>
       <c r="I6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.092074</v>
       </c>
       <c r="O6">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P6">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q6">
         <v>0.003043321922</v>
@@ -818,10 +818,10 @@
         <v>0.027389897298</v>
       </c>
       <c r="S6">
-        <v>1.645466828172026E-05</v>
+        <v>2.6031331360971E-05</v>
       </c>
       <c r="T6">
-        <v>1.645466828172026E-05</v>
+        <v>2.6031331360971E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.297477</v>
       </c>
       <c r="I7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J7">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N7">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O7">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P7">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q7">
-        <v>0.7384721752860001</v>
+        <v>1.122975641947</v>
       </c>
       <c r="R7">
-        <v>6.646249577574</v>
+        <v>10.106780777523</v>
       </c>
       <c r="S7">
-        <v>0.003992779926359532</v>
+        <v>0.009605474476591205</v>
       </c>
       <c r="T7">
-        <v>0.003992779926359533</v>
+        <v>0.009605474476591202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H8">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I8">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J8">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N8">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q8">
-        <v>0.191045675782</v>
+        <v>0.1200414809706667</v>
       </c>
       <c r="R8">
-        <v>1.719411082038</v>
+        <v>1.080373328736</v>
       </c>
       <c r="S8">
-        <v>0.001032947976658346</v>
+        <v>0.001026785745411891</v>
       </c>
       <c r="T8">
-        <v>0.001032947976658346</v>
+        <v>0.001026785745411891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H9">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I9">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J9">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.092074</v>
       </c>
       <c r="O9">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P9">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q9">
-        <v>0.146741464316</v>
+        <v>0.1993057436326667</v>
       </c>
       <c r="R9">
-        <v>1.320673178844</v>
+        <v>1.793751692694</v>
       </c>
       <c r="S9">
-        <v>0.000793403452010382</v>
+        <v>0.001704779838485546</v>
       </c>
       <c r="T9">
-        <v>0.0007934034520103822</v>
+        <v>0.001704779838485546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H10">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I10">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J10">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N10">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O10">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P10">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q10">
-        <v>35.607303839508</v>
+        <v>73.54315486037434</v>
       </c>
       <c r="R10">
-        <v>320.465734555572</v>
+        <v>661.8883937433691</v>
       </c>
       <c r="S10">
-        <v>0.1925219835765795</v>
+        <v>0.6290580761970438</v>
       </c>
       <c r="T10">
-        <v>0.1925219835765795</v>
+        <v>0.6290580761970436</v>
       </c>
     </row>
   </sheetData>
